--- a/updatedExcels/S3_CE.xlsx
+++ b/updatedExcels/S3_CE.xlsx
@@ -18591,12 +18591,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -18618,12 +18618,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -18672,12 +18672,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -18699,12 +18699,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -18996,12 +18996,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -19050,12 +19050,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -19077,12 +19077,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -19104,12 +19104,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -19131,12 +19131,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -19158,12 +19158,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -19185,12 +19185,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -19212,12 +19212,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -19320,12 +19320,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -19347,12 +19347,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -19374,12 +19374,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -19428,12 +19428,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -19563,12 +19563,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -19590,12 +19590,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -19617,12 +19617,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -19644,12 +19644,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -19698,12 +19698,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -19725,12 +19725,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -19806,12 +19806,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -19833,12 +19833,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -19860,12 +19860,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -19887,12 +19887,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -19914,12 +19914,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -20022,12 +20022,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -20049,12 +20049,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -20076,12 +20076,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -20103,12 +20103,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -20130,12 +20130,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -20157,12 +20157,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -20184,12 +20184,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -20211,12 +20211,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -20238,12 +20238,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -20265,12 +20265,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -20292,12 +20292,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -20319,12 +20319,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -20346,12 +20346,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -20373,12 +20373,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -20400,12 +20400,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -20454,12 +20454,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -20535,12 +20535,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -20562,12 +20562,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -20589,12 +20589,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -20643,12 +20643,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -20670,12 +20670,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -20697,12 +20697,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -20724,12 +20724,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -20751,12 +20751,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -20778,12 +20778,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -20805,12 +20805,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -20832,12 +20832,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -20859,12 +20859,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -20886,12 +20886,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -20913,12 +20913,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -20940,12 +20940,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -20967,12 +20967,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -20994,12 +20994,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -21021,12 +21021,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -21048,12 +21048,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -21075,12 +21075,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -21102,12 +21102,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -21129,12 +21129,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -21156,12 +21156,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -21183,12 +21183,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -21210,12 +21210,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -21237,12 +21237,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -21291,12 +21291,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -21318,12 +21318,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -21345,12 +21345,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -21372,12 +21372,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -21399,12 +21399,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -21426,12 +21426,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -21453,12 +21453,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -21480,12 +21480,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -21507,12 +21507,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -21534,12 +21534,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -21561,12 +21561,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -21588,12 +21588,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -21615,12 +21615,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -21642,12 +21642,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -21669,12 +21669,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -21696,12 +21696,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -21723,12 +21723,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -21750,12 +21750,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -21777,12 +21777,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -21804,12 +21804,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -21831,12 +21831,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -21858,12 +21858,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -21885,12 +21885,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -21912,12 +21912,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -21939,12 +21939,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -21966,12 +21966,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -21993,12 +21993,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -22020,12 +22020,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -22047,12 +22047,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -22074,12 +22074,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -22101,12 +22101,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -22128,12 +22128,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -22155,12 +22155,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -22182,12 +22182,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -22209,12 +22209,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -22236,12 +22236,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -22263,12 +22263,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -22290,12 +22290,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -22317,12 +22317,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -22371,12 +22371,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -22398,12 +22398,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -22425,12 +22425,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -22479,12 +22479,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -22506,12 +22506,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -22533,12 +22533,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -22560,12 +22560,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -22587,12 +22587,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -22614,12 +22614,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -22641,12 +22641,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -22668,12 +22668,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -22695,12 +22695,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -22722,12 +22722,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -22749,12 +22749,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -22776,12 +22776,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -22830,12 +22830,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -22857,12 +22857,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -22884,12 +22884,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -22911,12 +22911,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -22938,12 +22938,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -22965,12 +22965,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -22992,12 +22992,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -23019,12 +23019,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -23046,12 +23046,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -23100,12 +23100,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -23127,12 +23127,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -23154,12 +23154,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -23208,12 +23208,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -23235,12 +23235,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -23262,12 +23262,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -23289,12 +23289,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -23316,12 +23316,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -23343,12 +23343,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -23370,12 +23370,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -23424,12 +23424,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -23451,12 +23451,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -23478,12 +23478,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -23505,12 +23505,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -23532,12 +23532,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -23559,12 +23559,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -23586,12 +23586,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -23613,12 +23613,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -23640,12 +23640,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -23694,12 +23694,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -23721,12 +23721,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -23748,12 +23748,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -23775,12 +23775,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -23802,12 +23802,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -23829,12 +23829,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -23856,12 +23856,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -23883,12 +23883,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -23910,12 +23910,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -23937,12 +23937,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -23964,12 +23964,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -23991,12 +23991,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -24018,12 +24018,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -24099,12 +24099,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -24126,12 +24126,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -24153,12 +24153,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -24180,12 +24180,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -24207,12 +24207,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -24234,12 +24234,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -24261,12 +24261,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -24288,12 +24288,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -24315,12 +24315,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -24342,12 +24342,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -24369,12 +24369,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -24396,12 +24396,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -24423,12 +24423,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -24450,12 +24450,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -24477,12 +24477,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -24504,12 +24504,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -24531,12 +24531,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -24558,12 +24558,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -24585,12 +24585,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -24612,12 +24612,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -24639,12 +24639,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -24666,12 +24666,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -24693,12 +24693,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -24720,12 +24720,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -24747,12 +24747,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -24774,12 +24774,12 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -24801,12 +24801,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -24828,12 +24828,12 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -24855,12 +24855,12 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -24882,12 +24882,12 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -24909,12 +24909,12 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -24936,12 +24936,12 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -24963,12 +24963,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -24990,12 +24990,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -25017,12 +25017,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -25044,12 +25044,12 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -25098,12 +25098,12 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -25179,12 +25179,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -25206,12 +25206,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -25233,12 +25233,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -25260,12 +25260,12 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -25287,12 +25287,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -25341,12 +25341,12 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -25368,12 +25368,12 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -25395,12 +25395,12 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -25476,12 +25476,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -25503,12 +25503,12 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -25530,12 +25530,12 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -25557,12 +25557,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -25584,12 +25584,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -25611,12 +25611,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -25638,12 +25638,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -25665,12 +25665,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -25692,12 +25692,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -25719,12 +25719,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -25746,12 +25746,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -25773,12 +25773,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -25800,12 +25800,12 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -25827,12 +25827,12 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -25854,12 +25854,12 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -25881,12 +25881,12 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -25935,12 +25935,12 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -25962,12 +25962,12 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -25989,12 +25989,12 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -26016,12 +26016,12 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -26043,12 +26043,12 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -26070,12 +26070,12 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -26097,12 +26097,12 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -26124,12 +26124,12 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -26151,12 +26151,12 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -26178,12 +26178,12 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -26205,12 +26205,12 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -26259,12 +26259,12 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -26286,12 +26286,12 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -26340,12 +26340,12 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -26367,12 +26367,12 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -26394,12 +26394,12 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -26421,12 +26421,12 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -26448,12 +26448,12 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -26475,12 +26475,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -26502,12 +26502,12 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -26529,12 +26529,12 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -26556,12 +26556,12 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -26583,12 +26583,12 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -26610,12 +26610,12 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -26637,12 +26637,12 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -26664,12 +26664,12 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -26691,12 +26691,12 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -26718,12 +26718,12 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -26772,12 +26772,12 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -26799,12 +26799,12 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -26826,12 +26826,12 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -26853,12 +26853,12 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -26880,12 +26880,12 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -26907,12 +26907,12 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -26934,12 +26934,12 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -26961,12 +26961,12 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -26988,12 +26988,12 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -27015,12 +27015,12 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -27042,12 +27042,12 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -27069,12 +27069,12 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -27096,12 +27096,12 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -27123,12 +27123,12 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -27177,12 +27177,12 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -27204,12 +27204,12 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -27231,12 +27231,12 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -27258,12 +27258,12 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -27285,12 +27285,12 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -27312,12 +27312,12 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -27339,12 +27339,12 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -27366,12 +27366,12 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -27393,12 +27393,12 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -27420,12 +27420,12 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -27447,12 +27447,12 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -27474,12 +27474,12 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -27501,12 +27501,12 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -27528,12 +27528,12 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -27555,12 +27555,12 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -27582,12 +27582,12 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -27636,12 +27636,12 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -27663,12 +27663,12 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -27690,12 +27690,12 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -27717,12 +27717,12 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -27771,12 +27771,12 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -27798,12 +27798,12 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -27825,12 +27825,12 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -27852,12 +27852,12 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -27879,12 +27879,12 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -27906,12 +27906,12 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -27933,12 +27933,12 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -27960,12 +27960,12 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -27987,12 +27987,12 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -28014,12 +28014,12 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -28041,12 +28041,12 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -28068,12 +28068,12 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -28095,12 +28095,12 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -28122,12 +28122,12 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -28149,12 +28149,12 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -28176,12 +28176,12 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -28203,12 +28203,12 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -28257,12 +28257,12 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -28284,12 +28284,12 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -28311,12 +28311,12 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -28338,12 +28338,12 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -28365,12 +28365,12 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -28392,12 +28392,12 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -28419,12 +28419,12 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -28446,12 +28446,12 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -28473,12 +28473,12 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -28500,12 +28500,12 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -28527,12 +28527,12 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -28554,12 +28554,12 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -28581,12 +28581,12 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -28608,12 +28608,12 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -28635,12 +28635,12 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -28662,12 +28662,12 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -28689,12 +28689,12 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -28770,12 +28770,12 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -28797,12 +28797,12 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -28824,12 +28824,12 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -28851,12 +28851,12 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -28905,12 +28905,12 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -28932,12 +28932,12 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -28959,12 +28959,12 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -29013,12 +29013,12 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -29040,12 +29040,12 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -29067,12 +29067,12 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -29094,12 +29094,12 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -29121,12 +29121,12 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -29148,12 +29148,12 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -29175,12 +29175,12 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -29229,12 +29229,12 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -29256,12 +29256,12 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -29283,12 +29283,12 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -29310,12 +29310,12 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -29337,12 +29337,12 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -29364,12 +29364,12 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -29391,12 +29391,12 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -29418,12 +29418,12 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -29445,12 +29445,12 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -29472,12 +29472,12 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -29499,12 +29499,12 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -29526,12 +29526,12 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -29553,12 +29553,12 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -29580,12 +29580,12 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -29607,12 +29607,12 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -29661,12 +29661,12 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -29688,12 +29688,12 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -29715,12 +29715,12 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -29769,12 +29769,12 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -29796,12 +29796,12 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -29823,12 +29823,12 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -29850,12 +29850,12 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -29877,12 +29877,12 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -29904,12 +29904,12 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -29931,12 +29931,12 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -29958,12 +29958,12 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -29985,12 +29985,12 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -30039,12 +30039,12 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -30066,12 +30066,12 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -30093,12 +30093,12 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -30120,12 +30120,12 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -30174,12 +30174,12 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -30201,12 +30201,12 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -30228,12 +30228,12 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -30255,12 +30255,12 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -30309,12 +30309,12 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -30363,12 +30363,12 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -30417,12 +30417,12 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -30444,12 +30444,12 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -30471,12 +30471,12 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -30498,12 +30498,12 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -30525,12 +30525,12 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -30552,12 +30552,12 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -30579,12 +30579,12 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -30606,12 +30606,12 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -30633,12 +30633,12 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -30660,12 +30660,12 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -30687,12 +30687,12 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -30714,12 +30714,12 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -30768,12 +30768,12 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -30822,12 +30822,12 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -30849,12 +30849,12 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -30876,12 +30876,12 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -30903,12 +30903,12 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -30930,12 +30930,12 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -30957,12 +30957,12 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -30984,12 +30984,12 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -31038,12 +31038,12 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -31065,12 +31065,12 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -31092,12 +31092,12 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -31119,12 +31119,12 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -31146,12 +31146,12 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -31173,12 +31173,12 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -31200,12 +31200,12 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -31227,12 +31227,12 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -31281,12 +31281,12 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -31335,12 +31335,12 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -31362,12 +31362,12 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -31389,12 +31389,12 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -31416,12 +31416,12 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -31470,12 +31470,12 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -31497,12 +31497,12 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -31524,12 +31524,12 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -31605,12 +31605,12 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -31632,12 +31632,12 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -31659,12 +31659,12 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -31713,12 +31713,12 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -31740,12 +31740,12 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -31767,12 +31767,12 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -31794,12 +31794,12 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -31821,12 +31821,12 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -31848,12 +31848,12 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -31875,12 +31875,12 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -31902,12 +31902,12 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -31929,12 +31929,12 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
@@ -31956,12 +31956,12 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>CET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -31983,12 +31983,12 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -32010,12 +32010,12 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -32037,12 +32037,12 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -32091,12 +32091,12 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>CET201</t>
         </is>
       </c>
     </row>
@@ -32118,12 +32118,12 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>CEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -32145,12 +32145,12 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>EST200</t>
+          <t>CEL201</t>
         </is>
       </c>
     </row>
@@ -32172,12 +32172,12 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>CET205</t>
         </is>
       </c>
     </row>
@@ -32226,12 +32226,12 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>CET203</t>
+          <t>EST200</t>
         </is>
       </c>
     </row>
@@ -32253,12 +32253,12 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -32280,12 +32280,12 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>CET205</t>
+          <t>CEL203</t>
         </is>
       </c>
     </row>
@@ -32307,12 +32307,12 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>CEL203</t>
+          <t>CET203</t>
         </is>
       </c>
     </row>
